--- a/Data/Asthma/Transition probabilities/transition data_weekly_recalibrate.xlsx
+++ b/Data/Asthma/Transition probabilities/transition data_weekly_recalibrate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaya\Box\AA_Sigal_Documents\Climate - Health\Modeling\Data\Asthma\Transition probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48252AC9-A77A-4783-9F83-2DBE65B89E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EC091-7D53-4E60-8DA2-D3902CEE747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="697" activeTab="6" xr2:uid="{9B6F3090-D219-4CD1-9FEE-A2B042DB449C}"/>
   </bookViews>
@@ -1180,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE29CD-D7CE-45DF-83DF-7AAE57E0BCAE}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3067,7 +3067,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3378,7 +3378,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H7" activeCellId="4" sqref="D3:H3 E4:H4 F5:H5 G6:H6 H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
